--- a/DataTest/Tiếp nhận/TC_10.xlsx
+++ b/DataTest/Tiếp nhận/TC_10.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Check" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Check" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -487,19 +487,19 @@
   </sheetPr>
   <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="24.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="7.109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="24.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="7.140625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="12" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="10" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="10.21875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -806,7 +806,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2051</v>
+        <v>3009</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>46200602749</v>
+        <v>46200608009</v>
       </c>
       <c r="F2" t="n">
         <v>356572156</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>DN4127460129223</t>
+          <t>DN4127460130009</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -1036,7 +1036,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2051</v>
+        <v>3009</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DN4127460129223</t>
+          <t>DN4127460130009</t>
         </is>
       </c>
       <c r="D2" t="n">
